--- a/result_files/final_result_dataAug_T_casas.xlsx
+++ b/result_files/final_result_dataAug_T_casas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6001071428571428</v>
+        <v>0.4704481182812591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1647572270874666</v>
+        <v>0.07019365470811814</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8631071428571427</v>
+        <v>0.5993384189680698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04276248475054765</v>
+        <v>0.2545105893080319</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7943214285714285</v>
+        <v>0.5272015977457359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05441085200882752</v>
+        <v>0.1380270869210374</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72925</v>
+        <v>0.7382661945011793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07960492370168451</v>
+        <v>0.08018022732724023</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,1055 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8350535714285716</v>
+        <v>0.6513544604104377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08489565079693244</v>
+        <v>0.09432537612293644</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.701597043652526</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1604960514134215</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.254229340059449</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06447829010335861</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7125949307595211</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1595562678760734</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6628833553612655</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.103879608952814</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5519535734936692</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1202935217260421</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4576853251935547</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.09043568069979788</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6489752964439871</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1118413927902273</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5249598665455856</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1259344419401529</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6958790691480032</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1067965074144347</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6595765070483328</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09104305136888313</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6322873587995689</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1630745718149762</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.436112872015541</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1579818489996399</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7124544114150376</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1749515131682746</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6696557760433886</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1026769361765335</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6398553508976947</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.131036932954153</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5851795870123153</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1351275611538169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6636485890127297</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1732044294611103</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4673453113340086</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1731503274484162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6893380491850916</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1788411612804291</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5430417257042122</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1207345591725806</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6825124575010103</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1997435607322269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6583845064378024</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3741466058629849</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7334020925316815</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1390790881656507</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6437182472158959</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0874579660317772</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3764332695247843</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.07126354993206468</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4935247866746711</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1412795878369123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5556246371863482</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2343867549638387</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5440170399746549</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1466430730523729</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5494382986122736</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.190714800050048</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6328325816517798</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1227522604117873</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6916606103210757</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.2166514677448715</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.7912794114658441</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.188891867341734</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5747943787457029</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.109043644593396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6603344408033378</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1009658793663037</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6126354906221254</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.08844248843404509</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4268293341183366</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1339621811373828</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6280296342244202</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2394527396271809</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5075636432980092</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1588464531537402</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7849953383760619</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1217927385951189</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.534070117861678</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.06818461163077999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6940017931615777</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1881830738562439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3150428339382634</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1501840772950793</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.684136136535196</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1437261468922421</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6650081931202507</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.09590065186082318</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5812762895310126</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05122590801381497</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.4331002629591236</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1321568063295221</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4849378537331265</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2622261279311653</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5232414726808134</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1321621901908135</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7543538344834235</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.08665167350280953</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6526640049802742</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.09892534933708268</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5227109422920618</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.2682684569065835</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3431936713037488</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1080539691461968</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7157145893153442</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1724458397553905</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6724877633006707</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1018930571357922</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.565136372042176</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1856125608618719</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4595570049074092</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.08024707215962794</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.6275022038392428</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.2020793384829237</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5000079370749695</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1296345355622091</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.7015563541319874</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.09161333549483711</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6686059693232782</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.08950907692311466</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.661083743912244</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.2111966738282984</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4275277531520004</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.20435073174169</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.7161937371936753</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1648246368902707</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6623787566737199</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1030634854384735</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5737810934950197</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.09163702432226531</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4853501840284283</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.117717573971401</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6401405118300589</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1126735219741695</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5869395668387295</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1129355295328343</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7599618252908822</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.05719355176331105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6377194162904087</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1309204452596058</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7078632534333384</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1886029585776662</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4601325814599885</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.2369665843795742</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5118513832567954</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1839782209394296</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.65528616253773</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1161890333477073</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5690929903747328</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1737581902450297</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4834978501247993</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.07144580760216908</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5362267256763792</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1406928925677828</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5428204582314597</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1392557803516296</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3749726794738139</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1478813684341195</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5788889664378898</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.2254626685821078</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5245154439124202</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.2174394959475976</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6170540106554256</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.283789731850495</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6762659293938891</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.3397222271207211</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.561320748738103</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.2221090964285679</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5219940495333408</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1249440940641558</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5741678269962239</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1656101320388374</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6198582918470305</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.2582366880967329</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.56103079543497</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1198761308066111</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7989433423686786</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.08645166326802806</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6639090367384444</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.0911394581618071</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.6835336581305973</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1283990723985398</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.6050105618701238</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2224380678875175</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7273595516507818</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1898781275665288</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6664971606233878</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1090448987302223</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5614364547611392</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1566499005623151</v>
       </c>
     </row>
   </sheetData>
